--- a/multiple files/2311-EE-432-T1.xlsx
+++ b/multiple files/2311-EE-432-T1.xlsx
@@ -7309,7 +7309,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>06165 .,Arwa</t>
+          <t>ar06165@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B2" s="4" t="n">
@@ -7345,7 +7345,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05495 Abdul Rauf,Momal</t>
+          <t>ab05495@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B3" s="5" t="n">
@@ -7381,7 +7381,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>06466 Ali Khan,Khuzaima</t>
+          <t>al06466@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B4" s="4" t="n">
@@ -7417,7 +7417,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05283 Arif,Muhammad Ali</t>
+          <t>ar05283@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B5" s="4" t="n">
@@ -7453,7 +7453,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05445 Azeemi,Badar Irfan</t>
+          <t>az05445@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
@@ -7489,7 +7489,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06182 Bakhtiar,Yabudullah, Ahmed</t>
+          <t>ba06182@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B7" s="4" t="n">
@@ -7525,7 +7525,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>04897 Ejaz,Abdul Muezz</t>
+          <t>ej04897@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B8" s="5" t="n">
@@ -7561,7 +7561,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>05524 Irshad,Muhammad Aaliyan</t>
+          <t>ir05524@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B9" s="5" t="n">
@@ -7597,7 +7597,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>06857 Kerai,Ali Asghar</t>
+          <t>ke06857@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
@@ -7633,7 +7633,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>06181 Khan,Muhammad Aqib</t>
+          <t>kh06181@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
@@ -7669,7 +7669,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>06891 Lightwala,Daniyal</t>
+          <t>li06891@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
@@ -7705,7 +7705,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>06435 Maheshwari,Lakshman</t>
+          <t>ma06435@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
@@ -7741,7 +7741,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>06876 Rafi,Hamna Mansoor</t>
+          <t>ra06876@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
@@ -7777,7 +7777,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>05523 Raza,Muhammad</t>
+          <t>ra05523@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
@@ -7813,7 +7813,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>04290 Shafiq,Muhammad Hassan</t>
+          <t>sh04290@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B16" s="7" t="n">
@@ -7849,7 +7849,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>06864 Shah,Syed Jahania</t>
+          <t>sh06864@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
@@ -7885,7 +7885,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>05767 Shahzad,Muhammad Khizer</t>
+          <t>sh05767@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B18" s="7" t="n">
@@ -7921,7 +7921,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>06875 Siddiqui,Muhammad Ali</t>
+          <t>si06875@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
@@ -7957,7 +7957,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>05482 Tabassum,Maham</t>
+          <t>ta05482@st.habib.edu.pk</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
